--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.380256115093572</v>
+        <v>0.190133</v>
       </c>
       <c r="H2">
-        <v>0.380256115093572</v>
+        <v>0.570399</v>
       </c>
       <c r="I2">
-        <v>0.3267981159980938</v>
+        <v>0.1262541883749437</v>
       </c>
       <c r="J2">
-        <v>0.3267981159980938</v>
+        <v>0.1586467056275178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>64.52600521460691</v>
+        <v>37.42745111582533</v>
       </c>
       <c r="R2">
-        <v>64.52600521460691</v>
+        <v>336.847060042428</v>
       </c>
       <c r="S2">
-        <v>0.1813058049197436</v>
+        <v>0.07446579610922915</v>
       </c>
       <c r="T2">
-        <v>0.1813058049197436</v>
+        <v>0.09397967511695364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.380256115093572</v>
+        <v>0.190133</v>
       </c>
       <c r="H3">
-        <v>0.380256115093572</v>
+        <v>0.570399</v>
       </c>
       <c r="I3">
-        <v>0.3267981159980938</v>
+        <v>0.1262541883749437</v>
       </c>
       <c r="J3">
-        <v>0.3267981159980938</v>
+        <v>0.1586467056275178</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>20.76329325197903</v>
+        <v>0.05513178858966666</v>
       </c>
       <c r="R3">
-        <v>20.76329325197903</v>
+        <v>0.496186097307</v>
       </c>
       <c r="S3">
-        <v>0.05834090586135583</v>
+        <v>0.0001096904118731013</v>
       </c>
       <c r="T3">
-        <v>0.05834090586135583</v>
+        <v>0.0001384349568513007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.380256115093572</v>
+        <v>0.190133</v>
       </c>
       <c r="H4">
-        <v>0.380256115093572</v>
+        <v>0.570399</v>
       </c>
       <c r="I4">
-        <v>0.3267981159980938</v>
+        <v>0.1262541883749437</v>
       </c>
       <c r="J4">
-        <v>0.3267981159980938</v>
+        <v>0.1586467056275178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>29.39886227033577</v>
+        <v>10.387313353124</v>
       </c>
       <c r="R4">
-        <v>29.39886227033577</v>
+        <v>93.48582017811599</v>
       </c>
       <c r="S4">
-        <v>0.08260521273431166</v>
+        <v>0.02066663732677614</v>
       </c>
       <c r="T4">
-        <v>0.08260521273431166</v>
+        <v>0.02608236214760095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.380256115093572</v>
+        <v>0.190133</v>
       </c>
       <c r="H5">
-        <v>0.380256115093572</v>
+        <v>0.570399</v>
       </c>
       <c r="I5">
-        <v>0.3267981159980938</v>
+        <v>0.1262541883749437</v>
       </c>
       <c r="J5">
-        <v>0.3267981159980938</v>
+        <v>0.1586467056275178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>1.617971581075653</v>
+        <v>14.75958133646634</v>
       </c>
       <c r="R5">
-        <v>1.617971581075653</v>
+        <v>132.836232028197</v>
       </c>
       <c r="S5">
-        <v>0.004546192482682713</v>
+        <v>0.02936571798751649</v>
       </c>
       <c r="T5">
-        <v>0.004546192482682713</v>
+        <v>0.03706105057944636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.783324996542304</v>
+        <v>0.190133</v>
       </c>
       <c r="H6">
-        <v>0.783324996542304</v>
+        <v>0.570399</v>
       </c>
       <c r="I6">
-        <v>0.6732018840019062</v>
+        <v>0.1262541883749437</v>
       </c>
       <c r="J6">
-        <v>0.6732018840019062</v>
+        <v>0.1586467056275178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>132.9231294523239</v>
+        <v>0.8274745970390001</v>
       </c>
       <c r="R6">
-        <v>132.9231294523239</v>
+        <v>4.964847582234</v>
       </c>
       <c r="S6">
-        <v>0.3734887181943405</v>
+        <v>0.001646346539548849</v>
       </c>
       <c r="T6">
-        <v>0.3734887181943405</v>
+        <v>0.001385182826665531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.783324996542304</v>
+        <v>0.3810046666666667</v>
       </c>
       <c r="H7">
-        <v>0.783324996542304</v>
+        <v>1.143014</v>
       </c>
       <c r="I7">
-        <v>0.6732018840019062</v>
+        <v>0.2529988742462696</v>
       </c>
       <c r="J7">
-        <v>0.6732018840019062</v>
+        <v>0.3179097536744132</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>42.7722421000673</v>
+        <v>75.00030787168978</v>
       </c>
       <c r="R7">
-        <v>42.7722421000673</v>
+        <v>675.002770845208</v>
       </c>
       <c r="S7">
-        <v>0.1201818670841777</v>
+        <v>0.1492208918213294</v>
       </c>
       <c r="T7">
-        <v>0.1201818670841777</v>
+        <v>0.1883244612527891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.783324996542304</v>
+        <v>0.3810046666666667</v>
       </c>
       <c r="H8">
-        <v>0.783324996542304</v>
+        <v>1.143014</v>
       </c>
       <c r="I8">
-        <v>0.6732018840019062</v>
+        <v>0.2529988742462696</v>
       </c>
       <c r="J8">
-        <v>0.6732018840019062</v>
+        <v>0.3179097536744132</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>60.56145521970524</v>
+        <v>0.1104777641668889</v>
       </c>
       <c r="R8">
-        <v>60.56145521970524</v>
+        <v>0.994299877502</v>
       </c>
       <c r="S8">
-        <v>0.1701661733002195</v>
+        <v>0.0002198069709742145</v>
       </c>
       <c r="T8">
-        <v>0.1701661733002195</v>
+        <v>0.0002774077334820583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3810046666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.143014</v>
+      </c>
+      <c r="I9">
+        <v>0.2529988742462696</v>
+      </c>
+      <c r="J9">
+        <v>0.3179097536744132</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N9">
+        <v>163.895484</v>
+      </c>
+      <c r="O9">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P9">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q9">
+        <v>20.81498141653066</v>
+      </c>
+      <c r="R9">
+        <v>187.334832748776</v>
+      </c>
+      <c r="S9">
+        <v>0.04141356453540013</v>
+      </c>
+      <c r="T9">
+        <v>0.05226605426688678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3810046666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.143014</v>
+      </c>
+      <c r="I10">
+        <v>0.2529988742462696</v>
+      </c>
+      <c r="J10">
+        <v>0.3179097536744132</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N10">
+        <v>232.883003</v>
+      </c>
+      <c r="O10">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P10">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q10">
+        <v>29.57650364344912</v>
+      </c>
+      <c r="R10">
+        <v>266.188532791042</v>
+      </c>
+      <c r="S10">
+        <v>0.05884552178349396</v>
+      </c>
+      <c r="T10">
+        <v>0.07426608333292187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3810046666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.143014</v>
+      </c>
+      <c r="I11">
+        <v>0.2529988742462696</v>
+      </c>
+      <c r="J11">
+        <v>0.3179097536744132</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.352083</v>
+      </c>
+      <c r="N11">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P11">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q11">
+        <v>1.658163932720667</v>
+      </c>
+      <c r="R11">
+        <v>9.948983596324</v>
+      </c>
+      <c r="S11">
+        <v>0.003299089135071919</v>
+      </c>
+      <c r="T11">
+        <v>0.002775747088333386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.037075</v>
+      </c>
+      <c r="I12">
+        <v>0.008206315288072101</v>
+      </c>
+      <c r="J12">
+        <v>0.01031177581156387</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N12">
+        <v>590.546372</v>
+      </c>
+      <c r="O12">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P12">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q12">
+        <v>2.432722971322222</v>
+      </c>
+      <c r="R12">
+        <v>21.8945067419</v>
+      </c>
+      <c r="S12">
+        <v>0.004840154682511138</v>
+      </c>
+      <c r="T12">
+        <v>0.006108524830795733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.783324996542304</v>
-      </c>
-      <c r="H9">
-        <v>0.783324996542304</v>
-      </c>
-      <c r="I9">
-        <v>0.6732018840019062</v>
-      </c>
-      <c r="J9">
-        <v>0.6732018840019062</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q9">
-        <v>3.333010391798054</v>
-      </c>
-      <c r="R9">
-        <v>3.333010391798054</v>
-      </c>
-      <c r="S9">
-        <v>0.009365125423168466</v>
-      </c>
-      <c r="T9">
-        <v>0.009365125423168466</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.037075</v>
+      </c>
+      <c r="I13">
+        <v>0.008206315288072101</v>
+      </c>
+      <c r="J13">
+        <v>0.01031177581156387</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>0.003583475886111111</v>
+      </c>
+      <c r="R13">
+        <v>0.032251282975</v>
+      </c>
+      <c r="S13">
+        <v>7.129696966851675E-06</v>
+      </c>
+      <c r="T13">
+        <v>8.998045272277776E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.037075</v>
+      </c>
+      <c r="I14">
+        <v>0.008206315288072101</v>
+      </c>
+      <c r="J14">
+        <v>0.01031177581156387</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>0.6751583410333332</v>
+      </c>
+      <c r="R14">
+        <v>6.076425069299999</v>
+      </c>
+      <c r="S14">
+        <v>0.001343297549417557</v>
+      </c>
+      <c r="T14">
+        <v>0.001695310785296442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.037075</v>
+      </c>
+      <c r="I15">
+        <v>0.008206315288072101</v>
+      </c>
+      <c r="J15">
+        <v>0.01031177581156387</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>0.959348592913889</v>
+      </c>
+      <c r="R15">
+        <v>8.634137336225001</v>
+      </c>
+      <c r="S15">
+        <v>0.001908723532802781</v>
+      </c>
+      <c r="T15">
+        <v>0.002408907537062606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.037075</v>
+      </c>
+      <c r="I16">
+        <v>0.008206315288072101</v>
+      </c>
+      <c r="J16">
+        <v>0.01031177581156387</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>0.05378449240833334</v>
+      </c>
+      <c r="R16">
+        <v>0.32270695445</v>
+      </c>
+      <c r="S16">
+        <v>0.0001070098263737727</v>
+      </c>
+      <c r="T16">
+        <v>9.003461313681219E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.922458</v>
+      </c>
+      <c r="H17">
+        <v>1.844916</v>
+      </c>
+      <c r="I17">
+        <v>0.6125406220907146</v>
+      </c>
+      <c r="J17">
+        <v>0.513131764886505</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N17">
+        <v>590.546372</v>
+      </c>
+      <c r="O17">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P17">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q17">
+        <v>181.584741740792</v>
+      </c>
+      <c r="R17">
+        <v>1089.508450444752</v>
+      </c>
+      <c r="S17">
+        <v>0.3612816783374128</v>
+      </c>
+      <c r="T17">
+        <v>0.3039707403029627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.922458</v>
+      </c>
+      <c r="H18">
+        <v>1.844916</v>
+      </c>
+      <c r="I18">
+        <v>0.6125406220907146</v>
+      </c>
+      <c r="J18">
+        <v>0.513131764886505</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.869893</v>
+      </c>
+      <c r="O18">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P18">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q18">
+        <v>0.267479918998</v>
+      </c>
+      <c r="R18">
+        <v>1.604879513988</v>
+      </c>
+      <c r="S18">
+        <v>0.0005321790428575641</v>
+      </c>
+      <c r="T18">
+        <v>0.0004477582654497539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.922458</v>
+      </c>
+      <c r="H19">
+        <v>1.844916</v>
+      </c>
+      <c r="I19">
+        <v>0.6125406220907146</v>
+      </c>
+      <c r="J19">
+        <v>0.513131764886505</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N19">
+        <v>163.895484</v>
+      </c>
+      <c r="O19">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P19">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q19">
+        <v>50.39556679322399</v>
+      </c>
+      <c r="R19">
+        <v>302.373400759344</v>
+      </c>
+      <c r="S19">
+        <v>0.100267207350556</v>
+      </c>
+      <c r="T19">
+        <v>0.08436159117372813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.922458</v>
+      </c>
+      <c r="H20">
+        <v>1.844916</v>
+      </c>
+      <c r="I20">
+        <v>0.6125406220907146</v>
+      </c>
+      <c r="J20">
+        <v>0.513131764886505</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N20">
+        <v>232.883003</v>
+      </c>
+      <c r="O20">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P20">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q20">
+        <v>71.60826306045801</v>
+      </c>
+      <c r="R20">
+        <v>429.6495783627481</v>
+      </c>
+      <c r="S20">
+        <v>0.1424720668338925</v>
+      </c>
+      <c r="T20">
+        <v>0.1198713973741711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.922458</v>
+      </c>
+      <c r="H21">
+        <v>1.844916</v>
+      </c>
+      <c r="I21">
+        <v>0.6125406220907146</v>
+      </c>
+      <c r="J21">
+        <v>0.513131764886505</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.352083</v>
+      </c>
+      <c r="N21">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P21">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q21">
+        <v>4.014613780014001</v>
+      </c>
+      <c r="R21">
+        <v>16.058455120056</v>
+      </c>
+      <c r="S21">
+        <v>0.007987490525995759</v>
+      </c>
+      <c r="T21">
+        <v>0.004480277770193258</v>
       </c>
     </row>
   </sheetData>
